--- a/hw_global/Data/var_name_unit_lookup.xlsx
+++ b/hw_global/Data/var_name_unit_lookup.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="159">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">sensible heat flux put into canyon due to heat removed from air conditioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$\mathit{AH}_{ac}$</t>
   </si>
   <si>
     <t xml:space="preserve">HIA</t>
@@ -508,6 +511,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -609,11 +613,11 @@
   </sheetPr>
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="35:35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.1"/>
@@ -1059,16 +1063,19 @@
       <c r="D30" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="E30" s="0" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>18</v>
@@ -1076,13 +1083,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>18</v>
@@ -1090,13 +1097,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>18</v>
@@ -1104,240 +1111,240 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="C47" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>25</v>
@@ -1345,55 +1352,55 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>25</v>
@@ -1401,13 +1408,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>18</v>
@@ -1415,13 +1422,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>18</v>
@@ -1429,13 +1436,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>18</v>
@@ -1443,96 +1450,96 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B63" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
